--- a/Data/results_survey_relecov_bioinfo.xlsx
+++ b/Data/results_survey_relecov_bioinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results_survey_relecov_bioinfo" sheetId="1" state="visible" r:id="rId2"/>
@@ -1125,7 +1125,7 @@
     <t xml:space="preserve">COD_2104</t>
   </si>
   <si>
-    <t xml:space="preserve">Instituto Tecnológico y de Energías Renovables, S.A.</t>
+    <t xml:space="preserve">Instituto Tecnológico y de Energías Renovables</t>
   </si>
   <si>
     <t xml:space="preserve">COD_2111</t>
@@ -1262,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4118,16 +4118,16 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
@@ -4481,7 +4481,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="66.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="126.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="111"/>

--- a/Data/results_survey_relecov_bioinfo.xlsx
+++ b/Data/results_survey_relecov_bioinfo.xlsx
@@ -5,13 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="results_survey_relecov_bioinfo" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="parsed_data_general" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="parsed_data_bioinformatic_info" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parsed_data_general!$A$1:$E$19</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1089,12 +1092,33 @@
     <t xml:space="preserve">fecha</t>
   </si>
   <si>
+    <t xml:space="preserve">Instituto Tecnológico y de Energías Renovables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COD_2111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COD_2104</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hospital Joan XXIII</t>
   </si>
   <si>
     <t xml:space="preserve">COD_2128</t>
   </si>
   <si>
+    <t xml:space="preserve">Hospital Universitari Vall d’Hebron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COD_2114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Clínic de Barcelona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COD_2123</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fundación Rioja Salud</t>
   </si>
   <si>
@@ -1104,31 +1128,10 @@
     <t xml:space="preserve">COD_2116</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospital Universitari Vall d’Hebron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD_2114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Clínic de Barcelona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD_2123</t>
+    <t xml:space="preserve">COD_2103</t>
   </si>
   <si>
     <t xml:space="preserve">COD_2134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD_2103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD_2104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Tecnológico y de Energías Renovables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD_2111</t>
   </si>
   <si>
     <t xml:space="preserve">FISABIO CSIC</t>
@@ -1255,6 +1258,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1262,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4118,8 +4125,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4149,296 +4156,296 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>44631</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>44631</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>44631</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>44631</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>44633</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>44634</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>44635</v>
+        <v>44638</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>44636</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>282</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>365</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>44637</v>
+        <v>44631</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>44637</v>
+        <v>44634</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>44638</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>44641</v>
       </c>
@@ -4456,6 +4463,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4463,6 +4471,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4474,7 +4483,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4659,7 +4668,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>119</v>
@@ -4771,7 +4780,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>160</v>
@@ -4827,7 +4836,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>160</v>
@@ -5107,7 +5116,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>261</v>
@@ -5219,7 +5228,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
@@ -5331,7 +5340,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>57</v>
@@ -5387,7 +5396,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>91</v>
